--- a/biology/Zoologie/Bulbul_curvirostre/Bulbul_curvirostre.xlsx
+++ b/biology/Zoologie/Bulbul_curvirostre/Bulbul_curvirostre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurillas curvirostris
 Le Bulbul curvirostre (Eurillas curvirostris) est une espèce de passereaux de la famille des Pycnonotidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Angola, au Bénin, au Cameroun, en République centrafricaine, en République du Congo, en République démocratique du Congo, en Côte d'Ivoire, au Gabon, au Ghana, en Guinée, en Guinée équatoriale, au Kenya, au Libéria, au Nigéria, en Ouganda, au Rwanda, au Sierra Leone, au Soudan, en Tanzanie et au Togo.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts subtropicales ou tropicales en plaine et les montagnes humides.
 </t>
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes :
 Eurillas curvirostris curvirostris (Cassin, 1859) ;
